--- a/src/data/mock-data.xlsx
+++ b/src/data/mock-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bes/cc18/Project/Swapy01/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51848350-58CF-034E-A68F-217C68775135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C64084-BFF0-ED41-8D4B-C2A16C609926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4920" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{EBC99A39-14E9-FD43-AB84-C80166CFC4A2}"/>
+    <workbookView xWindow="28800" yWindow="2100" windowWidth="23600" windowHeight="15900" activeTab="2" xr2:uid="{EBC99A39-14E9-FD43-AB84-C80166CFC4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Asset_Pic" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Assets!$A$1:$I$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Assets!$A$1:$H$195</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sheet7!$A$2:$B$561</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="2309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="2313">
   <si>
     <t>"https://cdn.dummyjson.com/products/images/beauty/Essence%20Mascara%20Lash%20Princess/1.png"</t>
   </si>
@@ -6976,6 +6976,18 @@
   </si>
   <si>
     <t>asset_pic_id</t>
+  </si>
+  <si>
+    <t>asset_offeror_count</t>
+  </si>
+  <si>
+    <t>asset_swaper_count</t>
+  </si>
+  <si>
+    <t>asset_is_ready</t>
+  </si>
+  <si>
+    <t>user_is_ready</t>
   </si>
 </sst>
 </file>
@@ -7396,7 +7408,7 @@
   </sheetPr>
   <dimension ref="A1:C475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -17363,10 +17375,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17378,11 +17390,12 @@
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="22" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="22" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1443</v>
       </c>
@@ -17405,13 +17418,22 @@
         <v>1446</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1449</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="3" t="s">
+        <v>2309</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2310</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17433,14 +17455,14 @@
       <c r="G2" t="s">
         <v>559</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17462,14 +17484,14 @@
       <c r="G3" t="s">
         <v>569</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17491,14 +17513,14 @@
       <c r="G4" t="s">
         <v>577</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17520,14 +17542,14 @@
       <c r="G5" t="s">
         <v>585</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17549,14 +17571,14 @@
       <c r="G6" t="s">
         <v>592</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17578,14 +17600,14 @@
       <c r="G7" t="s">
         <v>599</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17607,14 +17629,14 @@
       <c r="G8" t="s">
         <v>607</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17636,14 +17658,14 @@
       <c r="G9" t="s">
         <v>613</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17665,14 +17687,14 @@
       <c r="G10" t="s">
         <v>619</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -17694,14 +17716,14 @@
       <c r="G11" t="s">
         <v>624</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17723,14 +17745,14 @@
       <c r="G12" t="s">
         <v>630</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17752,14 +17774,14 @@
       <c r="G13" t="s">
         <v>636</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17781,14 +17803,14 @@
       <c r="G14" t="s">
         <v>640</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>644</v>
+      </c>
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17810,14 +17832,14 @@
       <c r="G15" t="s">
         <v>646</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17839,11 +17861,11 @@
       <c r="G16" t="s">
         <v>652</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" t="s">
         <v>655</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -17865,11 +17887,11 @@
       <c r="G17" t="s">
         <v>657</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" t="s">
         <v>660</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -17891,11 +17913,11 @@
       <c r="G18" t="s">
         <v>662</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s">
         <v>664</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -17917,11 +17939,11 @@
       <c r="G19" t="s">
         <v>666</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
         <v>669</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -17943,11 +17965,11 @@
       <c r="G20" t="s">
         <v>671</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" t="s">
         <v>673</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -17969,11 +17991,11 @@
       <c r="G21" t="s">
         <v>675</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H21" t="s">
         <v>677</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -17995,11 +18017,11 @@
       <c r="G22" t="s">
         <v>679</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H22" t="s">
         <v>681</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -18021,11 +18043,11 @@
       <c r="G23" t="s">
         <v>683</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" t="s">
         <v>685</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -18047,11 +18069,11 @@
       <c r="G24" t="s">
         <v>687</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" t="s">
         <v>690</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -18073,11 +18095,11 @@
       <c r="G25" t="s">
         <v>692</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s">
         <v>694</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -18099,11 +18121,11 @@
       <c r="G26" t="s">
         <v>696</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
         <v>698</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -18125,11 +18147,11 @@
       <c r="G27" t="s">
         <v>700</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27" t="s">
         <v>702</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -18151,11 +18173,11 @@
       <c r="G28" t="s">
         <v>704</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" t="s">
         <v>706</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -18177,11 +18199,11 @@
       <c r="G29" t="s">
         <v>708</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
         <v>710</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -18203,11 +18225,11 @@
       <c r="G30" t="s">
         <v>712</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" t="s">
         <v>714</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -18229,11 +18251,11 @@
       <c r="G31" t="s">
         <v>716</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s">
         <v>718</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -18255,11 +18277,11 @@
       <c r="G32" t="s">
         <v>720</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="H32" t="s">
         <v>723</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -18281,11 +18303,11 @@
       <c r="G33" t="s">
         <v>725</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" t="s">
         <v>727</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -18307,11 +18329,11 @@
       <c r="G34" t="s">
         <v>729</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H34" t="s">
         <v>731</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -18333,11 +18355,11 @@
       <c r="G35" t="s">
         <v>733</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H35" t="s">
         <v>735</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -18359,11 +18381,11 @@
       <c r="G36" t="s">
         <v>737</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H36" t="s">
         <v>739</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -18385,11 +18407,11 @@
       <c r="G37" t="s">
         <v>741</v>
       </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H37" t="s">
         <v>743</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -18411,11 +18433,11 @@
       <c r="G38" t="s">
         <v>745</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H38" t="s">
         <v>747</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -18437,11 +18459,11 @@
       <c r="G39" t="s">
         <v>749</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="H39" t="s">
         <v>751</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -18463,11 +18485,11 @@
       <c r="G40" t="s">
         <v>753</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H40" t="s">
         <v>755</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -18489,11 +18511,11 @@
       <c r="G41" t="s">
         <v>757</v>
       </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H41" t="s">
         <v>759</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -18515,11 +18537,11 @@
       <c r="G42" t="s">
         <v>761</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="H42" t="s">
         <v>763</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -18541,11 +18563,11 @@
       <c r="G43" t="s">
         <v>765</v>
       </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="H43" t="s">
         <v>767</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -18567,11 +18589,11 @@
       <c r="G44" t="s">
         <v>769</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="H44" t="s">
         <v>772</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -18593,11 +18615,11 @@
       <c r="G45" t="s">
         <v>774</v>
       </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="H45" t="s">
         <v>776</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -18619,11 +18641,11 @@
       <c r="G46" t="s">
         <v>778</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s">
         <v>780</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -18645,11 +18667,11 @@
       <c r="G47" t="s">
         <v>782</v>
       </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="H47" t="s">
         <v>784</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -18671,11 +18693,11 @@
       <c r="G48" t="s">
         <v>786</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="H48" t="s">
         <v>788</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -18697,11 +18719,11 @@
       <c r="G49" t="s">
         <v>790</v>
       </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="H49" t="s">
         <v>793</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -18723,11 +18745,11 @@
       <c r="G50" t="s">
         <v>795</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="H50" t="s">
         <v>797</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -18749,11 +18771,11 @@
       <c r="G51" t="s">
         <v>799</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="H51" t="s">
         <v>801</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -18775,11 +18797,11 @@
       <c r="G52" t="s">
         <v>803</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="H52" t="s">
         <v>805</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -18801,11 +18823,11 @@
       <c r="G53" t="s">
         <v>807</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="H53" t="s">
         <v>809</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -18827,11 +18849,11 @@
       <c r="G54" t="s">
         <v>811</v>
       </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="H54" t="s">
         <v>813</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -18853,11 +18875,11 @@
       <c r="G55" t="s">
         <v>815</v>
       </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="H55" t="s">
         <v>817</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -18879,11 +18901,11 @@
       <c r="G56" t="s">
         <v>819</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="H56" t="s">
         <v>821</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -18905,11 +18927,11 @@
       <c r="G57" t="s">
         <v>823</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="H57" t="s">
         <v>825</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -18931,11 +18953,11 @@
       <c r="G58" t="s">
         <v>827</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="H58" t="s">
         <v>829</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -18957,11 +18979,11 @@
       <c r="G59" t="s">
         <v>831</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="H59" t="s">
         <v>833</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -18983,11 +19005,11 @@
       <c r="G60" t="s">
         <v>835</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="H60" t="s">
         <v>837</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -19009,11 +19031,11 @@
       <c r="G61" t="s">
         <v>839</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="H61" t="s">
         <v>841</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -19035,11 +19057,11 @@
       <c r="G62" t="s">
         <v>843</v>
       </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="H62" t="s">
         <v>845</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -19061,11 +19083,11 @@
       <c r="G63" t="s">
         <v>847</v>
       </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="H63" t="s">
         <v>849</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -19087,11 +19109,11 @@
       <c r="G64" t="s">
         <v>851</v>
       </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="H64" t="s">
         <v>853</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -19113,11 +19135,11 @@
       <c r="G65" t="s">
         <v>855</v>
       </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="H65" t="s">
         <v>857</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -19139,11 +19161,11 @@
       <c r="G66" t="s">
         <v>859</v>
       </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="H66" t="s">
         <v>861</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -19165,11 +19187,11 @@
       <c r="G67" t="s">
         <v>863</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="H67" t="s">
         <v>865</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -19191,11 +19213,11 @@
       <c r="G68" t="s">
         <v>867</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="H68" t="s">
         <v>869</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -19217,11 +19239,11 @@
       <c r="G69" t="s">
         <v>871</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="H69" t="s">
         <v>873</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -19243,11 +19265,11 @@
       <c r="G70" t="s">
         <v>875</v>
       </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="H70" t="s">
         <v>877</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -19269,11 +19291,11 @@
       <c r="G71" t="s">
         <v>879</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="H71" t="s">
         <v>881</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -19295,11 +19317,11 @@
       <c r="G72" t="s">
         <v>883</v>
       </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="H72" t="s">
         <v>885</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -19321,11 +19343,11 @@
       <c r="G73" t="s">
         <v>887</v>
       </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="H73" t="s">
         <v>889</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -19347,11 +19369,11 @@
       <c r="G74" t="s">
         <v>891</v>
       </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="H74" t="s">
         <v>893</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -19373,11 +19395,11 @@
       <c r="G75" t="s">
         <v>895</v>
       </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="H75" t="s">
         <v>897</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -19399,11 +19421,11 @@
       <c r="G76" t="s">
         <v>899</v>
       </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="H76" t="s">
         <v>901</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -19425,11 +19447,11 @@
       <c r="G77" t="s">
         <v>903</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="H77" t="s">
         <v>905</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -19451,11 +19473,11 @@
       <c r="G78" t="s">
         <v>907</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="H78" t="s">
         <v>909</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -19480,11 +19502,11 @@
       <c r="G79" t="s">
         <v>911</v>
       </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="H79" t="s">
         <v>914</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -19509,11 +19531,11 @@
       <c r="G80" t="s">
         <v>916</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="H80" t="s">
         <v>919</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -19538,11 +19560,11 @@
       <c r="G81" t="s">
         <v>921</v>
       </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="H81" t="s">
         <v>924</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -19567,11 +19589,11 @@
       <c r="G82" t="s">
         <v>926</v>
       </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="H82" t="s">
         <v>929</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -19596,11 +19618,11 @@
       <c r="G83" t="s">
         <v>931</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="H83" t="s">
         <v>934</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -19625,11 +19647,11 @@
       <c r="G84" t="s">
         <v>936</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="H84" t="s">
         <v>940</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -19654,11 +19676,11 @@
       <c r="G85" t="s">
         <v>942</v>
       </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="H85" t="s">
         <v>945</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -19683,11 +19705,11 @@
       <c r="G86" t="s">
         <v>947</v>
       </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="H86" t="s">
         <v>950</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -19712,11 +19734,11 @@
       <c r="G87" t="s">
         <v>952</v>
       </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="H87" t="s">
         <v>955</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -19741,11 +19763,11 @@
       <c r="G88" t="s">
         <v>957</v>
       </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="H88" t="s">
         <v>960</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -19770,11 +19792,11 @@
       <c r="G89" t="s">
         <v>962</v>
       </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="H89" t="s">
         <v>966</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -19799,11 +19821,11 @@
       <c r="G90" t="s">
         <v>968</v>
       </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="H90" t="s">
         <v>970</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -19828,11 +19850,11 @@
       <c r="G91" t="s">
         <v>972</v>
       </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="H91" t="s">
         <v>975</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -19857,11 +19879,11 @@
       <c r="G92" t="s">
         <v>977</v>
       </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="H92" t="s">
         <v>980</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -19886,11 +19908,11 @@
       <c r="G93" t="s">
         <v>982</v>
       </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="H93" t="s">
         <v>984</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -19915,11 +19937,11 @@
       <c r="G94" t="s">
         <v>986</v>
       </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="H94" t="s">
         <v>990</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -19944,11 +19966,11 @@
       <c r="G95" t="s">
         <v>992</v>
       </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="H95" t="s">
         <v>995</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -19973,11 +19995,11 @@
       <c r="G96" t="s">
         <v>997</v>
       </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="H96" t="s">
         <v>1000</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -20002,11 +20024,11 @@
       <c r="G97" t="s">
         <v>1002</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="H97" t="s">
         <v>1004</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -20031,11 +20053,11 @@
       <c r="G98" t="s">
         <v>1006</v>
       </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="H98" t="s">
         <v>1008</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -20060,11 +20082,11 @@
       <c r="G99" t="s">
         <v>1010</v>
       </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99" t="s">
+      <c r="H99" t="s">
         <v>1012</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -20089,11 +20111,11 @@
       <c r="G100" t="s">
         <v>1014</v>
       </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="H100" t="s">
         <v>1018</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -20118,11 +20140,11 @@
       <c r="G101" t="s">
         <v>1020</v>
       </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="H101" t="s">
         <v>1022</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -20147,11 +20169,11 @@
       <c r="G102" t="s">
         <v>1024</v>
       </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="H102" t="s">
         <v>1026</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -20176,11 +20198,11 @@
       <c r="G103" t="s">
         <v>1028</v>
       </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="H103" t="s">
         <v>1030</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -20205,11 +20227,11 @@
       <c r="G104" t="s">
         <v>1032</v>
       </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="H104" t="s">
         <v>1034</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -20234,11 +20256,11 @@
       <c r="G105" t="s">
         <v>1036</v>
       </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="H105" t="s">
         <v>1038</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -20263,11 +20285,11 @@
       <c r="G106" t="s">
         <v>1040</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="H106" t="s">
         <v>1042</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -20292,11 +20314,11 @@
       <c r="G107" t="s">
         <v>1044</v>
       </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="H107" t="s">
         <v>1046</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -20321,11 +20343,11 @@
       <c r="G108" t="s">
         <v>1048</v>
       </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108" t="s">
+      <c r="H108" t="s">
         <v>1051</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -20350,11 +20372,11 @@
       <c r="G109" t="s">
         <v>1053</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="H109" t="s">
         <v>1055</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -20379,11 +20401,11 @@
       <c r="G110" t="s">
         <v>1057</v>
       </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="H110" t="s">
         <v>1060</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -20408,11 +20430,11 @@
       <c r="G111" t="s">
         <v>1062</v>
       </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="H111" t="s">
         <v>1065</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -20437,11 +20459,11 @@
       <c r="G112" t="s">
         <v>1067</v>
       </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="H112" t="s">
         <v>1070</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -20466,11 +20488,11 @@
       <c r="G113" t="s">
         <v>1072</v>
       </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="H113" t="s">
         <v>1075</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -20495,11 +20517,11 @@
       <c r="G114" t="s">
         <v>1077</v>
       </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114" t="s">
+      <c r="H114" t="s">
         <v>1081</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -20524,11 +20546,11 @@
       <c r="G115" t="s">
         <v>1083</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115" t="s">
+      <c r="H115" t="s">
         <v>1086</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -20553,11 +20575,11 @@
       <c r="G116" t="s">
         <v>1088</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116" t="s">
+      <c r="H116" t="s">
         <v>1091</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -20582,11 +20604,11 @@
       <c r="G117" t="s">
         <v>1093</v>
       </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117" t="s">
+      <c r="H117" t="s">
         <v>1096</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -20611,11 +20633,11 @@
       <c r="G118" t="s">
         <v>1098</v>
       </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118" t="s">
+      <c r="H118" t="s">
         <v>1101</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -20640,11 +20662,11 @@
       <c r="G119" t="s">
         <v>1103</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119" t="s">
+      <c r="H119" t="s">
         <v>1107</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -20669,11 +20691,11 @@
       <c r="G120" t="s">
         <v>1109</v>
       </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="H120" t="s">
         <v>1112</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -20698,11 +20720,11 @@
       <c r="G121" t="s">
         <v>1114</v>
       </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121" t="s">
+      <c r="H121" t="s">
         <v>1117</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -20727,11 +20749,11 @@
       <c r="G122" t="s">
         <v>1119</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122" t="s">
+      <c r="H122" t="s">
         <v>1122</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -20756,11 +20778,11 @@
       <c r="G123" t="s">
         <v>1124</v>
       </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="H123" t="s">
         <v>1126</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -20785,11 +20807,11 @@
       <c r="G124" t="s">
         <v>1128</v>
       </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124" t="s">
+      <c r="H124" t="s">
         <v>1130</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -20814,11 +20836,11 @@
       <c r="G125" t="s">
         <v>1132</v>
       </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="I125" t="s">
+      <c r="H125" t="s">
         <v>1134</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -20843,11 +20865,11 @@
       <c r="G126" t="s">
         <v>1136</v>
       </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126" t="s">
+      <c r="H126" t="s">
         <v>1139</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -20872,11 +20894,11 @@
       <c r="G127" t="s">
         <v>1141</v>
       </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127" t="s">
+      <c r="H127" t="s">
         <v>1143</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -20901,11 +20923,11 @@
       <c r="G128" t="s">
         <v>1145</v>
       </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128" t="s">
+      <c r="H128" t="s">
         <v>1147</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -20930,11 +20952,11 @@
       <c r="G129" t="s">
         <v>1149</v>
       </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129" t="s">
+      <c r="H129" t="s">
         <v>1152</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -20959,11 +20981,11 @@
       <c r="G130" t="s">
         <v>1154</v>
       </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-      <c r="I130" t="s">
+      <c r="H130" t="s">
         <v>1156</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -20988,11 +21010,11 @@
       <c r="G131" t="s">
         <v>1158</v>
       </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-      <c r="I131" t="s">
+      <c r="H131" t="s">
         <v>1160</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -21017,11 +21039,11 @@
       <c r="G132" t="s">
         <v>1162</v>
       </c>
-      <c r="H132">
+      <c r="H132" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I132">
         <v>2</v>
-      </c>
-      <c r="I132" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -21046,11 +21068,11 @@
       <c r="G133" t="s">
         <v>1167</v>
       </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-      <c r="I133" t="s">
+      <c r="H133" t="s">
         <v>1169</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -21075,11 +21097,11 @@
       <c r="G134" t="s">
         <v>1171</v>
       </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="I134" t="s">
+      <c r="H134" t="s">
         <v>1173</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -21104,11 +21126,11 @@
       <c r="G135" t="s">
         <v>1175</v>
       </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
-      <c r="I135" t="s">
+      <c r="H135" t="s">
         <v>1178</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -21133,11 +21155,11 @@
       <c r="G136" t="s">
         <v>1180</v>
       </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="I136" t="s">
+      <c r="H136" t="s">
         <v>1182</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -21162,11 +21184,11 @@
       <c r="G137" t="s">
         <v>1184</v>
       </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="I137" t="s">
+      <c r="H137" t="s">
         <v>1186</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -21188,11 +21210,11 @@
       <c r="G138" t="s">
         <v>1188</v>
       </c>
-      <c r="H138">
+      <c r="H138" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I138">
         <v>3</v>
-      </c>
-      <c r="I138" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -21214,11 +21236,11 @@
       <c r="G139" t="s">
         <v>1193</v>
       </c>
-      <c r="H139">
-        <v>1</v>
-      </c>
-      <c r="I139" t="s">
+      <c r="H139" t="s">
         <v>1195</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -21240,11 +21262,11 @@
       <c r="G140" t="s">
         <v>1197</v>
       </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
-      <c r="I140" t="s">
+      <c r="H140" t="s">
         <v>1199</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -21266,11 +21288,11 @@
       <c r="G141" t="s">
         <v>1201</v>
       </c>
-      <c r="H141">
+      <c r="H141" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I141">
         <v>4</v>
-      </c>
-      <c r="I141" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -21292,11 +21314,11 @@
       <c r="G142" t="s">
         <v>1205</v>
       </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-      <c r="I142" t="s">
+      <c r="H142" t="s">
         <v>1207</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -21318,11 +21340,11 @@
       <c r="G143" t="s">
         <v>1209</v>
       </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
-      <c r="I143" t="s">
+      <c r="H143" t="s">
         <v>1211</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -21344,11 +21366,11 @@
       <c r="G144" t="s">
         <v>1213</v>
       </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="I144" t="s">
+      <c r="H144" t="s">
         <v>1215</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -21370,11 +21392,11 @@
       <c r="G145" t="s">
         <v>1217</v>
       </c>
-      <c r="H145">
-        <v>1</v>
-      </c>
-      <c r="I145" t="s">
+      <c r="H145" t="s">
         <v>1219</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -21396,11 +21418,11 @@
       <c r="G146" t="s">
         <v>1221</v>
       </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-      <c r="I146" t="s">
+      <c r="H146" t="s">
         <v>1223</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -21422,11 +21444,11 @@
       <c r="G147" t="s">
         <v>1225</v>
       </c>
-      <c r="H147">
-        <v>1</v>
-      </c>
-      <c r="I147" t="s">
+      <c r="H147" t="s">
         <v>1227</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -21448,11 +21470,11 @@
       <c r="G148" t="s">
         <v>1229</v>
       </c>
-      <c r="H148">
-        <v>1</v>
-      </c>
-      <c r="I148" t="s">
+      <c r="H148" t="s">
         <v>1231</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -21474,11 +21496,11 @@
       <c r="G149" t="s">
         <v>1233</v>
       </c>
-      <c r="H149">
-        <v>1</v>
-      </c>
-      <c r="I149" t="s">
+      <c r="H149" t="s">
         <v>1235</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -21500,11 +21522,11 @@
       <c r="G150" t="s">
         <v>1237</v>
       </c>
-      <c r="H150">
-        <v>1</v>
-      </c>
-      <c r="I150" t="s">
+      <c r="H150" t="s">
         <v>1239</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
@@ -21526,11 +21548,11 @@
       <c r="G151" t="s">
         <v>1241</v>
       </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-      <c r="I151" t="s">
+      <c r="H151" t="s">
         <v>1243</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -21552,11 +21574,11 @@
       <c r="G152" t="s">
         <v>1245</v>
       </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-      <c r="I152" t="s">
+      <c r="H152" t="s">
         <v>1247</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -21578,11 +21600,11 @@
       <c r="G153" t="s">
         <v>1249</v>
       </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-      <c r="I153" t="s">
+      <c r="H153" t="s">
         <v>1251</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -21604,11 +21626,11 @@
       <c r="G154" t="s">
         <v>1253</v>
       </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-      <c r="I154" t="s">
+      <c r="H154" t="s">
         <v>1255</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -21633,11 +21655,11 @@
       <c r="G155" t="s">
         <v>1257</v>
       </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
-      <c r="I155" t="s">
+      <c r="H155" t="s">
         <v>1261</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -21662,11 +21684,11 @@
       <c r="G156" t="s">
         <v>1263</v>
       </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-      <c r="I156" t="s">
+      <c r="H156" t="s">
         <v>1265</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -21691,11 +21713,11 @@
       <c r="G157" t="s">
         <v>1267</v>
       </c>
-      <c r="H157">
-        <v>1</v>
-      </c>
-      <c r="I157" t="s">
+      <c r="H157" t="s">
         <v>1269</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -21720,11 +21742,11 @@
       <c r="G158" t="s">
         <v>1271</v>
       </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-      <c r="I158" t="s">
+      <c r="H158" t="s">
         <v>1274</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -21749,11 +21771,11 @@
       <c r="G159" t="s">
         <v>1276</v>
       </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-      <c r="I159" t="s">
+      <c r="H159" t="s">
         <v>1278</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -21778,11 +21800,11 @@
       <c r="G160" t="s">
         <v>1280</v>
       </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-      <c r="I160" t="s">
+      <c r="H160" t="s">
         <v>1283</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -21807,11 +21829,11 @@
       <c r="G161" t="s">
         <v>1285</v>
       </c>
-      <c r="H161">
-        <v>1</v>
-      </c>
-      <c r="I161" t="s">
+      <c r="H161" t="s">
         <v>1287</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -21836,11 +21858,11 @@
       <c r="G162" t="s">
         <v>1289</v>
       </c>
-      <c r="H162">
-        <v>1</v>
-      </c>
-      <c r="I162" t="s">
+      <c r="H162" t="s">
         <v>1291</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -21862,11 +21884,11 @@
       <c r="G163" t="s">
         <v>1293</v>
       </c>
-      <c r="H163">
-        <v>1</v>
-      </c>
-      <c r="I163" t="s">
+      <c r="H163" t="s">
         <v>1296</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -21888,11 +21910,11 @@
       <c r="G164" t="s">
         <v>1298</v>
       </c>
-      <c r="H164">
-        <v>1</v>
-      </c>
-      <c r="I164" t="s">
+      <c r="H164" t="s">
         <v>1300</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -21914,11 +21936,11 @@
       <c r="G165" t="s">
         <v>1302</v>
       </c>
-      <c r="H165">
-        <v>1</v>
-      </c>
-      <c r="I165" t="s">
+      <c r="H165" t="s">
         <v>1304</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -21940,11 +21962,11 @@
       <c r="G166" t="s">
         <v>1306</v>
       </c>
-      <c r="H166">
-        <v>1</v>
-      </c>
-      <c r="I166" t="s">
+      <c r="H166" t="s">
         <v>1308</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -21966,11 +21988,11 @@
       <c r="G167" t="s">
         <v>1310</v>
       </c>
-      <c r="H167">
-        <v>1</v>
-      </c>
-      <c r="I167" t="s">
+      <c r="H167" t="s">
         <v>1312</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -21995,11 +22017,11 @@
       <c r="G168" t="s">
         <v>1314</v>
       </c>
-      <c r="H168">
-        <v>1</v>
-      </c>
-      <c r="I168" t="s">
+      <c r="H168" t="s">
         <v>1318</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -22024,11 +22046,11 @@
       <c r="G169" t="s">
         <v>1320</v>
       </c>
-      <c r="H169">
-        <v>1</v>
-      </c>
-      <c r="I169" t="s">
+      <c r="H169" t="s">
         <v>1323</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -22053,11 +22075,11 @@
       <c r="G170" t="s">
         <v>1325</v>
       </c>
-      <c r="H170">
-        <v>1</v>
-      </c>
-      <c r="I170" t="s">
+      <c r="H170" t="s">
         <v>1327</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -22082,11 +22104,11 @@
       <c r="G171" t="s">
         <v>1329</v>
       </c>
-      <c r="H171">
-        <v>1</v>
-      </c>
-      <c r="I171" t="s">
+      <c r="H171" t="s">
         <v>1331</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -22111,11 +22133,11 @@
       <c r="G172" t="s">
         <v>1333</v>
       </c>
-      <c r="H172">
-        <v>1</v>
-      </c>
-      <c r="I172" t="s">
+      <c r="H172" t="s">
         <v>1335</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -22140,11 +22162,11 @@
       <c r="G173" t="s">
         <v>1337</v>
       </c>
-      <c r="H173">
-        <v>1</v>
-      </c>
-      <c r="I173" t="s">
+      <c r="H173" t="s">
         <v>1341</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -22169,11 +22191,11 @@
       <c r="G174" t="s">
         <v>1343</v>
       </c>
-      <c r="H174">
-        <v>1</v>
-      </c>
-      <c r="I174" t="s">
+      <c r="H174" t="s">
         <v>1346</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -22198,11 +22220,11 @@
       <c r="G175" t="s">
         <v>1348</v>
       </c>
-      <c r="H175">
-        <v>1</v>
-      </c>
-      <c r="I175" t="s">
+      <c r="H175" t="s">
         <v>1351</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -22227,11 +22249,11 @@
       <c r="G176" t="s">
         <v>1353</v>
       </c>
-      <c r="H176">
-        <v>1</v>
-      </c>
-      <c r="I176" t="s">
+      <c r="H176" t="s">
         <v>1355</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -22256,11 +22278,11 @@
       <c r="G177" t="s">
         <v>1357</v>
       </c>
-      <c r="H177">
-        <v>1</v>
-      </c>
-      <c r="I177" t="s">
+      <c r="H177" t="s">
         <v>1360</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -22282,11 +22304,11 @@
       <c r="G178" t="s">
         <v>1362</v>
       </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
-      <c r="I178" t="s">
+      <c r="H178" t="s">
         <v>1365</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -22308,11 +22330,11 @@
       <c r="G179" t="s">
         <v>1367</v>
       </c>
-      <c r="H179">
-        <v>1</v>
-      </c>
-      <c r="I179" t="s">
+      <c r="H179" t="s">
         <v>1369</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -22334,11 +22356,11 @@
       <c r="G180" t="s">
         <v>1371</v>
       </c>
-      <c r="H180">
-        <v>1</v>
-      </c>
-      <c r="I180" t="s">
+      <c r="H180" t="s">
         <v>1373</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -22360,11 +22382,11 @@
       <c r="G181" t="s">
         <v>1375</v>
       </c>
-      <c r="H181">
-        <v>1</v>
-      </c>
-      <c r="I181" t="s">
+      <c r="H181" t="s">
         <v>1377</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -22386,11 +22408,11 @@
       <c r="G182" t="s">
         <v>1379</v>
       </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-      <c r="I182" t="s">
+      <c r="H182" t="s">
         <v>1381</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -22412,11 +22434,11 @@
       <c r="G183" t="s">
         <v>1383</v>
       </c>
-      <c r="H183">
-        <v>1</v>
-      </c>
-      <c r="I183" t="s">
+      <c r="H183" t="s">
         <v>1386</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -22438,11 +22460,11 @@
       <c r="G184" t="s">
         <v>1388</v>
       </c>
-      <c r="H184">
-        <v>1</v>
-      </c>
-      <c r="I184" t="s">
+      <c r="H184" t="s">
         <v>1390</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -22464,11 +22486,11 @@
       <c r="G185" t="s">
         <v>1392</v>
       </c>
-      <c r="H185">
-        <v>1</v>
-      </c>
-      <c r="I185" t="s">
+      <c r="H185" t="s">
         <v>1394</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -22493,11 +22515,11 @@
       <c r="G186" t="s">
         <v>1396</v>
       </c>
-      <c r="H186">
-        <v>1</v>
-      </c>
-      <c r="I186" t="s">
+      <c r="H186" t="s">
         <v>1400</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -22522,11 +22544,11 @@
       <c r="G187" t="s">
         <v>1402</v>
       </c>
-      <c r="H187">
-        <v>1</v>
-      </c>
-      <c r="I187" t="s">
+      <c r="H187" t="s">
         <v>1404</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -22551,11 +22573,11 @@
       <c r="G188" t="s">
         <v>1406</v>
       </c>
-      <c r="H188">
-        <v>1</v>
-      </c>
-      <c r="I188" t="s">
+      <c r="H188" t="s">
         <v>1409</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -22580,11 +22602,11 @@
       <c r="G189" t="s">
         <v>1411</v>
       </c>
-      <c r="H189">
-        <v>1</v>
-      </c>
-      <c r="I189" t="s">
+      <c r="H189" t="s">
         <v>1414</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -22609,11 +22631,11 @@
       <c r="G190" t="s">
         <v>1416</v>
       </c>
-      <c r="H190">
-        <v>1</v>
-      </c>
-      <c r="I190" t="s">
+      <c r="H190" t="s">
         <v>1419</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -22638,11 +22660,11 @@
       <c r="G191" t="s">
         <v>1421</v>
       </c>
-      <c r="H191">
-        <v>1</v>
-      </c>
-      <c r="I191" t="s">
+      <c r="H191" t="s">
         <v>1425</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -22667,11 +22689,11 @@
       <c r="G192" t="s">
         <v>1426</v>
       </c>
-      <c r="H192">
-        <v>1</v>
-      </c>
-      <c r="I192" t="s">
+      <c r="H192" t="s">
         <v>1428</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -22696,11 +22718,11 @@
       <c r="G193" t="s">
         <v>1430</v>
       </c>
-      <c r="H193">
-        <v>1</v>
-      </c>
-      <c r="I193" t="s">
+      <c r="H193" t="s">
         <v>1432</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -22725,11 +22747,11 @@
       <c r="G194" t="s">
         <v>1434</v>
       </c>
-      <c r="H194">
-        <v>1</v>
-      </c>
-      <c r="I194" t="s">
+      <c r="H194" t="s">
         <v>1437</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -22754,15 +22776,15 @@
       <c r="G195" t="s">
         <v>1439</v>
       </c>
-      <c r="H195">
-        <v>1</v>
-      </c>
-      <c r="I195" t="s">
+      <c r="H195" t="s">
         <v>1442</v>
       </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I195" xr:uid="{738944CF-1FC3-A24F-9A77-92B0003A5C68}"/>
+  <autoFilter ref="A1:H195" xr:uid="{738944CF-1FC3-A24F-9A77-92B0003A5C68}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22772,10 +22794,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22791,7 +22813,7 @@
     <col min="11" max="11" width="59.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>518</v>
       </c>
@@ -22825,8 +22847,11 @@
       <c r="K1" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -22860,8 +22885,11 @@
       <c r="K2" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -22895,8 +22923,11 @@
       <c r="K3" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -22930,8 +22961,11 @@
       <c r="K4" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -22965,8 +22999,11 @@
       <c r="K5" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -23000,8 +23037,11 @@
       <c r="K6" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -23035,8 +23075,11 @@
       <c r="K7" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -23070,8 +23113,11 @@
       <c r="K8" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -23105,8 +23151,11 @@
       <c r="K9" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -23140,8 +23189,11 @@
       <c r="K10" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -23175,8 +23227,11 @@
       <c r="K11" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -23210,8 +23265,11 @@
       <c r="K12" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -23245,8 +23303,11 @@
       <c r="K13" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -23280,8 +23341,11 @@
       <c r="K14" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -23315,8 +23379,11 @@
       <c r="K15" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -23350,8 +23417,11 @@
       <c r="K16" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -23385,8 +23455,11 @@
       <c r="K17" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -23420,8 +23493,11 @@
       <c r="K18" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -23455,8 +23531,11 @@
       <c r="K19" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -23490,8 +23569,11 @@
       <c r="K20" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -23525,8 +23607,11 @@
       <c r="K21" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -23553,6 +23638,9 @@
       </c>
       <c r="K22" t="s">
         <v>1494</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
